--- a/src/attributions/attributions_saliency_traj_89.xlsx
+++ b/src/attributions/attributions_saliency_traj_89.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0001927623525261879</v>
+        <v>8.188479938553428e-08</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000117423725896515</v>
+        <v>3.050587054076459e-07</v>
       </c>
       <c r="C2" t="n">
-        <v>3.956789441872388e-05</v>
+        <v>1.421682469526786e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>1.444194640498608e-05</v>
+        <v>2.123842932633124e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001835955423302948</v>
+        <v>1.916565750548216e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001737973652780056</v>
+        <v>1.090655175062238e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001619595219381154</v>
+        <v>1.350977072434034e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001172908232547343</v>
+        <v>4.333813308221579e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000126763348816894</v>
+        <v>6.041685907121064e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0004195565124973655</v>
+        <v>1.515437446641954e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0005351516883820295</v>
+        <v>3.023373551513941e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000610335438977927</v>
+        <v>9.746967322143973e-08</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0002880994870793074</v>
+        <v>2.949255417661334e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001347491866908967</v>
+        <v>3.657311786753326e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001499110949225724</v>
+        <v>2.512543630928121e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0009625673410482705</v>
+        <v>1.595451770697309e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.888793283607811e-05</v>
+        <v>1.250452470458185e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0001473795855417848</v>
+        <v>7.04286833297374e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0004470760468393564</v>
+        <v>4.228764538538599e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0001255880633834749</v>
+        <v>8.285152830467268e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>0.000280034844763577</v>
+        <v>2.864311987593737e-08</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0008721356280148029</v>
+        <v>9.692130653604636e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0001660880807321519</v>
+        <v>9.080535789962596e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>0.000150645209942013</v>
+        <v>9.70774962638643e-08</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0003096997388638556</v>
+        <v>8.004401763628266e-08</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0002106329775415361</v>
+        <v>4.630291172702528e-08</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0007355465204454958</v>
+        <v>2.733788484476918e-08</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.000298280909191817</v>
+        <v>1.154408266756946e-07</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0002217821311205626</v>
+        <v>3.680424853769182e-08</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0002855955390259624</v>
+        <v>7.521320810610632e-08</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0003173377772327513</v>
+        <v>6.747334424517248e-08</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.615059879142791e-05</v>
+        <v>1.125426294379395e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0004226011515129358</v>
+        <v>3.748046495388735e-08</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0003166180104017258</v>
+        <v>2.587070824233706e-08</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0001625047589186579</v>
+        <v>2.778163832317659e-08</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0004446290840860456</v>
+        <v>3.914619384204343e-08</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.000199468806385994</v>
+        <v>5.236443101352961e-08</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.000126013474073261</v>
+        <v>1.87117905170453e-07</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0005982656730338931</v>
+        <v>3.989438468465778e-08</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0001799442834453657</v>
+        <v>8.386233218971029e-08</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0001265180326299742</v>
+        <v>1.176841379901816e-08</v>
       </c>
       <c r="AP2" t="n">
-        <v>8.672455442138016e-05</v>
+        <v>1.030184559880354e-08</v>
       </c>
       <c r="AQ2" t="n">
-        <v>6.316983490251005e-05</v>
+        <v>1.032037211246006e-08</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.000385648978408426</v>
+        <v>3.027823680668007e-08</v>
       </c>
       <c r="AS2" t="n">
-        <v>9.505771595286205e-05</v>
+        <v>5.230531741062805e-08</v>
       </c>
       <c r="AT2" t="n">
-        <v>5.678345041815192e-05</v>
+        <v>9.384761767705641e-08</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0001893283624667674</v>
+        <v>1.131613984739488e-07</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0006484176847152412</v>
+        <v>5.750164078222042e-08</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0005014610942453146</v>
+        <v>6.134251151479475e-08</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0006875128601677716</v>
+        <v>9.354282326512475e-08</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0002203050244133919</v>
+        <v>4.843184342462337e-08</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0001140769891208038</v>
+        <v>9.532614697604913e-09</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0003648218989837915</v>
+        <v>2.975906809865592e-08</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0004618227249011397</v>
+        <v>5.878163733541442e-08</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0002064968721242622</v>
+        <v>1.993984710679797e-08</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0004295223043300211</v>
+        <v>1.461133933844394e-07</v>
       </c>
       <c r="BE2" t="n">
-        <v>2.829872755683027e-05</v>
+        <v>8.771269222052069e-08</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0001156481666839682</v>
+        <v>1.339067239314318e-07</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0006104318890720606</v>
+        <v>5.633799204929346e-08</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.000800906855147332</v>
+        <v>4.431800348925208e-08</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.000910904782358557</v>
+        <v>5.058480567754486e-08</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4.618141247192398e-05</v>
+        <v>3.591239305933414e-08</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.00048553102533333</v>
+        <v>5.465353325462274e-08</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.000147186205140315</v>
+        <v>1.974332803911238e-07</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0002494100190233439</v>
+        <v>2.135135872549654e-07</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0001525455445516855</v>
+        <v>6.425316945168902e-10</v>
       </c>
       <c r="BO2" t="n">
-        <v>3.902750177076086e-05</v>
+        <v>2.315660907470374e-08</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0001925495598698035</v>
+        <v>4.511886864122516e-09</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0001426083472324535</v>
+        <v>1.868420973494267e-10</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0004748801875393838</v>
+        <v>1.17758229833953e-08</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0002844636328518391</v>
+        <v>2.866469017703821e-08</v>
       </c>
       <c r="BT2" t="n">
-        <v>3.950488098780625e-05</v>
+        <v>4.152160215653566e-08</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0002094140800181776</v>
+        <v>8.48738039849195e-08</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0003236569173168391</v>
+        <v>6.986019229771046e-08</v>
       </c>
       <c r="BW2" t="n">
-        <v>3.886979175149463e-05</v>
+        <v>4.529554686882875e-08</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0006087945075705647</v>
+        <v>1.774080993222071e-09</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0009528924711048603</v>
+        <v>1.13122020195533e-07</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.000665677129290998</v>
+        <v>2.646762808922176e-08</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0001232933427672833</v>
+        <v>3.155054528747314e-08</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0001490071590524167</v>
+        <v>2.072845362022235e-08</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0002051380142802373</v>
+        <v>3.542911386489322e-08</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0001113322505261749</v>
+        <v>9.24030203464099e-08</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0002564878668636084</v>
+        <v>3.031501449868301e-08</v>
       </c>
       <c r="CF2" t="n">
-        <v>9.921043238136917e-05</v>
+        <v>1.137498095715728e-08</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0001218232428072952</v>
+        <v>8.696790843032431e-08</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0002387937274761498</v>
+        <v>5.100753597275798e-08</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0002537054824642837</v>
+        <v>4.366438943748108e-08</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.000365033745765686</v>
+        <v>9.517911792045197e-09</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0001026207173708826</v>
+        <v>2.357967154864582e-08</v>
       </c>
       <c r="CL2" t="n">
-        <v>4.717511728813406e-06</v>
+        <v>8.701944942401951e-09</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0002948123146779835</v>
+        <v>3.376533186383313e-08</v>
       </c>
       <c r="CN2" t="n">
-        <v>7.847778033465147e-05</v>
+        <v>1.66475633278651e-08</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0001705710019450635</v>
+        <v>2.572538626566256e-08</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0002445154823362827</v>
+        <v>7.165859017277398e-08</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0003535815631039441</v>
+        <v>1.631651969091763e-08</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0003442387096583843</v>
+        <v>2.36224426686249e-08</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0002121083671227098</v>
+        <v>8.709019283514863e-08</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0001092120364774019</v>
+        <v>1.089637109430441e-07</v>
       </c>
       <c r="CU2" t="n">
-        <v>6.568167736986652e-05</v>
+        <v>1.414148016465333e-07</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0001042547519318759</v>
+        <v>8.922905436747897e-08</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0003183252410963178</v>
+        <v>3.487150124215077e-08</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0001647060125833377</v>
+        <v>5.956233284365453e-09</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0002063689607894048</v>
+        <v>5.165678729213141e-08</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.000247147079790011</v>
+        <v>2.684350697279569e-08</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0002698255411814898</v>
+        <v>5.44451985717842e-08</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0002867065777536482</v>
+        <v>8.706937393299086e-10</v>
       </c>
       <c r="DC2" t="n">
-        <v>9.215887257596478e-05</v>
+        <v>3.233004974845244e-08</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0002080753329209983</v>
+        <v>8.240768067935278e-10</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0004198866663500667</v>
+        <v>2.938903698179729e-08</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0002693205315154046</v>
+        <v>1.953687274180993e-07</v>
       </c>
       <c r="DG2" t="n">
-        <v>8.663788321428001e-06</v>
+        <v>6.705856492317253e-08</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0002755363821052015</v>
+        <v>7.321839490259663e-08</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0002630309900268912</v>
+        <v>8.08645737038205e-08</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0002493146457709372</v>
+        <v>1.285981028331662e-07</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0004201728152111173</v>
+        <v>1.654873074130592e-07</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0001527881249785423</v>
+        <v>1.463074728036418e-08</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0004036325844936073</v>
+        <v>1.781524616717434e-07</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0001589210878591985</v>
+        <v>8.398977513479622e-08</v>
       </c>
       <c r="DO2" t="n">
-        <v>6.854652747279033e-05</v>
+        <v>8.633509196442901e-08</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0003630848659668118</v>
+        <v>1.717414903623649e-07</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0003328626626171172</v>
+        <v>1.727299974163543e-07</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0003383967559784651</v>
+        <v>5.601179609016071e-08</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0001671399513725191</v>
+        <v>9.698416292280854e-09</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0002727831888478249</v>
+        <v>1.278684180761047e-08</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0001180059916805476</v>
+        <v>1.496261070599303e-08</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0001932760351337492</v>
+        <v>3.826714589649782e-08</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0001215640513692051</v>
+        <v>9.889565433240932e-08</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.325163222849369e-06</v>
+        <v>7.016487302280439e-08</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0001206154702231288</v>
+        <v>6.495763926750442e-08</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0003722734400071204</v>
+        <v>5.474072395372787e-08</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0004158197552897036</v>
+        <v>2.358275352776218e-08</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0001365389616694301</v>
+        <v>1.218791396695451e-07</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0003444133326411247</v>
+        <v>2.319136882533712e-08</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0002564651367720217</v>
+        <v>1.119981689612359e-07</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0002092379581881687</v>
+        <v>4.032809641785207e-08</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0003861799195874482</v>
+        <v>7.111434108253434e-09</v>
       </c>
       <c r="EG2" t="n">
-        <v>9.046525519806892e-05</v>
+        <v>4.008089149465377e-08</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0001259170094272122</v>
+        <v>1.090630075140098e-08</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.00028810347430408</v>
+        <v>1.609532205293362e-07</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0005521209677681327</v>
+        <v>4.959549926297768e-08</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0004851766279898584</v>
+        <v>7.421287762099382e-08</v>
       </c>
       <c r="EL2" t="n">
-        <v>4.189447645330802e-05</v>
+        <v>1.594760590251099e-08</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0001453737932024524</v>
+        <v>6.27413498932583e-08</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.000247453834163025</v>
+        <v>1.172750430100677e-08</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0001002757635433227</v>
+        <v>1.213322917692494e-07</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0003018121933564544</v>
+        <v>3.93059913506022e-08</v>
       </c>
       <c r="EQ2" t="n">
-        <v>4.092798917554319e-06</v>
+        <v>1.23863287626591e-07</v>
       </c>
       <c r="ER2" t="n">
-        <v>9.362376295030117e-05</v>
+        <v>3.05213809781435e-09</v>
       </c>
       <c r="ES2" t="n">
-        <v>2.973510709125549e-05</v>
+        <v>2.565103329743579e-08</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0003326846635900438</v>
+        <v>9.814232981852911e-08</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.000539925298653543</v>
+        <v>6.053888057522272e-09</v>
       </c>
       <c r="EV2" t="n">
-        <v>4.567842916003428e-05</v>
+        <v>7.475745178453508e-08</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0003168676339555532</v>
+        <v>4.652480356526212e-08</v>
       </c>
       <c r="EX2" t="n">
-        <v>3.215199103578925e-05</v>
+        <v>1.083924274780657e-07</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0002674329443834722</v>
+        <v>3.537507708983867e-08</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0001403925562044606</v>
+        <v>6.591255097276871e-09</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0001043677038978785</v>
+        <v>7.650367450651174e-08</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0002809055731631815</v>
+        <v>4.179673140924933e-08</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0002712284622248262</v>
+        <v>3.052666386338387e-08</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0002627591311465949</v>
+        <v>8.359178238492859e-09</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0001220447375089861</v>
+        <v>1.191034382230782e-08</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0001087030250346288</v>
+        <v>1.125985260586049e-08</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0002438821538817137</v>
+        <v>6.009209130297677e-09</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0003906856582034379</v>
+        <v>1.338736552725095e-07</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.000305965484585613</v>
+        <v>9.12960640420124e-09</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0003161423956044018</v>
+        <v>9.248968524389056e-08</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0002939921978395432</v>
+        <v>4.482608773059837e-08</v>
       </c>
       <c r="FL2" t="n">
-        <v>3.946720607928e-05</v>
+        <v>5.128677216248434e-08</v>
       </c>
       <c r="FM2" t="n">
-        <v>3.333421773277223e-05</v>
+        <v>1.942118821318672e-08</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.869281186372973e-05</v>
+        <v>6.226097326589297e-08</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0002496344095561653</v>
+        <v>2.984158697927342e-08</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0003295298374723643</v>
+        <v>2.265456089389772e-07</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0001357924775220454</v>
+        <v>1.276048209319924e-07</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0001442649809177965</v>
+        <v>8.067440049330799e-10</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.001235391478985548</v>
+        <v>6.812425290547708e-09</v>
       </c>
       <c r="FT2" t="n">
-        <v>7.142321919673122e-06</v>
+        <v>3.391428649024419e-08</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0001244444865733385</v>
+        <v>7.995258499704505e-08</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0004886387032456696</v>
+        <v>2.787177209029323e-07</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0005147578194737434</v>
+        <v>1.868295385065721e-07</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0005454540951177478</v>
+        <v>2.476855343047646e-08</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.000406292820116505</v>
+        <v>1.903746493781e-07</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0002593797398731112</v>
+        <v>2.341042915077196e-08</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0001953077735379338</v>
+        <v>2.011738047258405e-07</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0003621141659095883</v>
+        <v>2.067803528404966e-08</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0003050359082408249</v>
+        <v>1.001591201088559e-07</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0008444996783509851</v>
+        <v>1.150081416767534e-07</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0002059127727989107</v>
+        <v>1.245788325832109e-07</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0005275227013044059</v>
+        <v>1.015993973396689e-07</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0002048610476776958</v>
+        <v>9.857269134272428e-08</v>
       </c>
     </row>
     <row r="3">
